--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -2,47 +2,553 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="epoch" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="train2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="25">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -73,18 +579,233 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -436,7 +1157,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -449,119 +1169,611 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>HyperParameters</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Origin_domain_nums</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>EPOCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>kernel_size</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n"/>
+      <c r="B3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>out_channels</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>stride</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>HyperParameters</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Origin_domain_nums</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VAL_ACC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VAL_F1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TEST_ACC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TEST_F1</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>EPOCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>kernel_size</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>98.318124</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>97.5214</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>97.789</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>92.11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>81.641874</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>58.369571</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>64.542</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>37.185</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>99.958742</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>99.94950300000001</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>99.979</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>99.97499999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>out_channels</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>99.92927299999999</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>99.866027</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>98.202</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>97.54600000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>99.899438</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>99.861825</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>99.94199999999999</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>99.895</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>99.91233099999999</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>99.863231</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>99.923</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>99.854</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>stride</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>85.11282799999999</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>68.091702</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>87.673</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>70.31</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>64.95347599999999</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>51.442331</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>68.363</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>51.629</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>64.651799</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>50.54065</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:F10">
+    <cfRule type="cellIs" priority="1" operator="lessThan" dxfId="0">
+      <formula>95</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>HyperParameters</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Origin_domain_nums</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>EPOCH</t>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>VAL_ACC</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>VAL_F1</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>TEST_ACC</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>TEST_F1</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>kernel_size</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>99.2861419916153</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99.11224246025085</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n">
+      <c r="A3" s="7" t="n"/>
+      <c r="B3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>99.79556500911713</v>
+      </c>
+      <c r="D3" t="n">
+        <v>99.66849088668823</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>99.95874166488647</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99.94950294494629</v>
+      </c>
+      <c r="E4" t="n">
+        <v>99.979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>99.97499999999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>out_channels</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>99.86518621444702</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.79065656661987</v>
+      </c>
+      <c r="E5" t="n">
+        <v>94.77200000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91.988</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>99.8994380235672</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99.86182451248169</v>
+      </c>
+      <c r="E6" t="n">
+        <v>99.94199999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>99.895</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>99.91233050823212</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99.86323118209839</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.923</v>
+      </c>
+      <c r="F7" t="n">
+        <v>99.854</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>stride</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>72.38270044326782</v>
+      </c>
+      <c r="D8" t="n">
+        <v>58.01817178726196</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19.597</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n">
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>63.8185977935791</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.57306885719299</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12.272</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.17</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n">
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>75.82381367683411</v>
+      </c>
+      <c r="D10" t="n">
+        <v>59.16728973388672</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21.244</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20.374</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -726,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -745,6 +745,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1169,53 +1171,53 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>HyperParameters</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Origin_domain_nums</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>EPOCH</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>kernel_size</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n"/>
+      <c r="B3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" s="6" t="n"/>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
@@ -1223,21 +1225,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>out_channels</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
@@ -1245,8 +1247,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="4" t="n">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
@@ -1254,34 +1256,34 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>stride</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="4" t="n">
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
-      <c r="B10" s="4" t="n">
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1627,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n"/>
+      <c r="A3" s="8" t="n"/>
       <c r="B3" s="7" t="n">
         <v>2</v>
       </c>
@@ -1643,7 +1645,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n"/>
+      <c r="A4" s="9" t="n"/>
       <c r="B4" s="7" t="n">
         <v>3</v>
       </c>
@@ -1683,7 +1685,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n"/>
+      <c r="A6" s="8" t="n"/>
       <c r="B6" s="7" t="n">
         <v>2</v>
       </c>
@@ -1701,7 +1703,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
+      <c r="A7" s="9" t="n"/>
       <c r="B7" s="7" t="n">
         <v>3</v>
       </c>
@@ -1741,7 +1743,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n"/>
+      <c r="A9" s="8" t="n"/>
       <c r="B9" s="7" t="n">
         <v>2</v>
       </c>
@@ -1759,7 +1761,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="n">
         <v>3</v>
       </c>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>HyperParameters</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>stride</t>
+  </si>
+  <si>
+    <t>训练完成，未测试</t>
   </si>
 </sst>
 </file>
@@ -713,11 +716,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1086,7 +1090,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1119,11 +1123,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:14">
@@ -1139,10 +1142,10 @@
       <c r="D2">
         <v>99.112242</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>98.672</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>97.915</v>
       </c>
       <c r="G2">
@@ -1151,11 +1154,10 @@
       <c r="H2">
         <v>-4.553487</v>
       </c>
-      <c r="I2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1"/>
@@ -1180,11 +1182,10 @@
       <c r="H3">
         <v>-4.95593</v>
       </c>
-      <c r="I3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1"/>
@@ -1209,11 +1210,10 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="I4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
@@ -1228,10 +1228,10 @@
       <c r="D5">
         <v>99.790657</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>94.774</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>91.987</v>
       </c>
       <c r="G5">
@@ -1240,11 +1240,10 @@
       <c r="H5">
         <v>-1.901774</v>
       </c>
-      <c r="I5"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1"/>
@@ -1269,11 +1268,10 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="I6"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
@@ -1298,11 +1296,10 @@
       <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="I7"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
@@ -1317,18 +1314,21 @@
       <c r="D8">
         <v>58.018171787262</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>19.65</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>19.597</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1"/>
@@ -1341,18 +1341,18 @@
       <c r="D9">
         <v>50.573068857193</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>12.272</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>12.17</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
@@ -1365,18 +1365,18 @@
       <c r="D10">
         <v>59.1672897338867</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>21.244</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>20.374</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,264 +1,216 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15540"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="train2" sheetId="3" r:id="rId1"/>
+    <sheet name="train2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="append" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="epoch" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>HyperParameters</t>
-  </si>
-  <si>
-    <t>Origin_domain_nums</t>
-  </si>
-  <si>
-    <t>VAL_ACC</t>
-  </si>
-  <si>
-    <t>VAL_F1</t>
-  </si>
-  <si>
-    <t>TEST_ACC</t>
-  </si>
-  <si>
-    <t>TEST_F1</t>
-  </si>
-  <si>
-    <t>epoch</t>
-  </si>
-  <si>
-    <t>loss_value</t>
-  </si>
-  <si>
-    <t>kernel_size</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>out_channels</t>
-  </si>
-  <si>
-    <t>stride</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="24">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="33">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="34">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -456,6 +408,52 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -565,168 +563,218 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -790,11 +838,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1081,315 +1192,930 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="8" max="8" width="10.0555555555556"/>
+    <col width="12.1666666666667" customWidth="1" min="3" max="4"/>
+    <col width="10.0555555555556" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>HyperParameters</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Origin_domain_nums</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VAL_ACC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VAL_F1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TEST_ACC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TEST_F1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>epoch</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>loss_value</t>
+        </is>
+      </c>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="9" t="n"/>
+      <c r="N1" s="9" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>kernel_size</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="n">
+        <v>99.286142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99.11224199999999</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>98.672</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>97.91500000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-4.553487</v>
+      </c>
+      <c r="K2" s="8" t="n"/>
+      <c r="L2" s="8" t="n"/>
+      <c r="M2" s="8" t="n"/>
+      <c r="N2" s="8" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" t="n">
+        <v>99.795565</v>
+      </c>
+      <c r="D3" t="n">
+        <v>99.668491</v>
+      </c>
+      <c r="E3" t="n">
+        <v>99.806</v>
+      </c>
+      <c r="F3" t="n">
+        <v>99.654</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-4.95593</v>
+      </c>
+      <c r="K3" s="8" t="n"/>
+      <c r="L3" s="8" t="n"/>
+      <c r="M3" s="8" t="n"/>
+      <c r="N3" s="8" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" t="n">
+        <v>99.958742</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99.94950300000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>99.979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>99.97499999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="n"/>
+      <c r="L4" s="8" t="n"/>
+      <c r="M4" s="8" t="n"/>
+      <c r="N4" s="8" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="K5" s="8" t="n"/>
+      <c r="L5" s="8" t="n"/>
+      <c r="M5" s="8" t="n"/>
+      <c r="N5" s="8" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>out_channels</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>99.286142</v>
-      </c>
-      <c r="D2">
-        <v>99.112242</v>
-      </c>
-      <c r="E2">
-        <v>98.672</v>
-      </c>
-      <c r="F2">
-        <v>97.915</v>
-      </c>
-      <c r="G2">
+      <c r="C6" t="n">
+        <v>99.86518599999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99.790657</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>94.774</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>91.98699999999999</v>
+      </c>
+      <c r="G6" t="n">
         <v>18</v>
       </c>
-      <c r="H2">
-        <v>-4.553487</v>
-      </c>
-      <c r="I2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
+      <c r="H6" t="n">
+        <v>-1.901774</v>
+      </c>
+      <c r="K6" s="8" t="n"/>
+      <c r="L6" s="8" t="n"/>
+      <c r="M6" s="8" t="n"/>
+      <c r="N6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>99.795565</v>
-      </c>
-      <c r="D3">
-        <v>99.668491</v>
-      </c>
-      <c r="E3">
-        <v>99.806</v>
-      </c>
-      <c r="F3">
-        <v>99.654</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>-4.95593</v>
-      </c>
-      <c r="I3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
+      <c r="C7" t="n">
+        <v>99.899438</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99.861825</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.94199999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>99.895</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="n"/>
+      <c r="L7" s="8" t="n"/>
+      <c r="M7" s="8" t="n"/>
+      <c r="N7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>99.958742</v>
-      </c>
-      <c r="D4">
-        <v>99.949503</v>
-      </c>
-      <c r="E4">
-        <v>99.979</v>
-      </c>
-      <c r="F4">
-        <v>99.975</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C8" t="n">
+        <v>99.91233099999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>99.863231</v>
+      </c>
+      <c r="E8" t="n">
+        <v>99.923</v>
+      </c>
+      <c r="F8" t="n">
+        <v>99.854</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K8" s="8" t="n"/>
+      <c r="L8" s="8" t="n"/>
+      <c r="M8" s="8" t="n"/>
+      <c r="N8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="H9" s="8" t="n"/>
+      <c r="I9" s="10" t="n"/>
+      <c r="K9" s="8" t="n"/>
+      <c r="L9" s="8" t="n"/>
+      <c r="M9" s="8" t="n"/>
+      <c r="N9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>stride</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>99.865186</v>
-      </c>
-      <c r="D5">
-        <v>99.790657</v>
-      </c>
-      <c r="E5">
-        <v>94.774</v>
-      </c>
-      <c r="F5">
-        <v>91.987</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <v>-1.901774</v>
-      </c>
-      <c r="I5"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="C10" t="n">
+        <v>72.38270044326779</v>
+      </c>
+      <c r="D10" t="n">
+        <v>58.018171787262</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>19.597</v>
+      </c>
+      <c r="H10" s="8" t="n"/>
+      <c r="I10" s="10" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="8" t="n"/>
+      <c r="N10" s="8" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>99.899438</v>
-      </c>
-      <c r="D6">
-        <v>99.861825</v>
-      </c>
-      <c r="E6">
-        <v>99.942</v>
-      </c>
-      <c r="F6">
-        <v>99.895</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
+      <c r="C11" t="n">
+        <v>63.8185977935791</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50.573068857193</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>12.272</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="H11" s="8" t="n"/>
+      <c r="I11" s="10" t="n"/>
+      <c r="K11" s="8" t="n"/>
+      <c r="L11" s="8" t="n"/>
+      <c r="M11" s="8" t="n"/>
+      <c r="N11" s="8" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>99.912331</v>
-      </c>
-      <c r="D7">
-        <v>99.863231</v>
-      </c>
-      <c r="E7">
-        <v>99.923</v>
-      </c>
-      <c r="F7">
-        <v>99.854</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>72.3827004432678</v>
-      </c>
-      <c r="D8">
-        <v>58.018171787262</v>
-      </c>
-      <c r="E8" s="2">
-        <v>19.65</v>
-      </c>
-      <c r="F8" s="2">
-        <v>19.597</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>63.8185977935791</v>
-      </c>
-      <c r="D9">
-        <v>50.573068857193</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12.272</v>
-      </c>
-      <c r="F9" s="2">
-        <v>12.17</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>75.8238136768341</v>
-      </c>
-      <c r="D10">
+      <c r="C12" t="n">
+        <v>75.82381367683411</v>
+      </c>
+      <c r="D12" t="n">
         <v>59.1672897338867</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E12" s="2" t="n">
         <v>21.244</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F12" s="2" t="n">
         <v>20.374</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="H12" s="8" t="n"/>
+      <c r="I12" s="10" t="n"/>
+      <c r="K12" s="8" t="n"/>
+      <c r="L12" s="8" t="n"/>
+      <c r="M12" s="8" t="n"/>
+      <c r="N12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="7" t="n">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:N10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="K2:N13">
+    <cfRule type="cellIs" priority="1" operator="lessThan" dxfId="0">
       <formula>95</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>HyperParameters</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Origin_domain_nums</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VAL_ACC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VAL_F1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TEST_ACC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TEST_F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>kernel_size</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99.9593049287796</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99.93973970413209</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.398</v>
+      </c>
+      <c r="F2" t="n">
+        <v>98.792</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>99.7955650091171</v>
+      </c>
+      <c r="D3" t="n">
+        <v>99.6684908866882</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>64.816</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>29.186</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>99.9587416648865</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99.9495029449463</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>63.254</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>26.131</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>99.99095499515531</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.99334812164309</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.173</v>
+      </c>
+      <c r="F5" t="n">
+        <v>98.617</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>out_channels</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>99.84175264835361</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99.71640110015871</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>65.471</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45.811</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>99.8994380235672</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99.8618245124817</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>57.042</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>46.206</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>99.9123305082321</v>
+      </c>
+      <c r="D8" t="n">
+        <v>99.8632311820984</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>69.209</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>99.8711407184601</v>
+      </c>
+      <c r="D9" t="n">
+        <v>99.7591853141785</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>58.145</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>42.666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>stride</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>99.941223859787</v>
+      </c>
+      <c r="D10" t="n">
+        <v>99.84889626502989</v>
+      </c>
+      <c r="E10" t="n">
+        <v>97.818</v>
+      </c>
+      <c r="F10" t="n">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>99.93895888328549</v>
+      </c>
+      <c r="D11" t="n">
+        <v>99.8430132865906</v>
+      </c>
+      <c r="E11" t="n">
+        <v>97.578</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.45399999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>99.9547839164734</v>
+      </c>
+      <c r="D12" t="n">
+        <v>99.88374710083011</v>
+      </c>
+      <c r="E12" t="n">
+        <v>97.327</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.614</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>99.93669986724851</v>
+      </c>
+      <c r="D13" t="n">
+        <v>99.8372435569763</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97.33199999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>92.608</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>HyperParameters</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>Origin_domain_nums</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>epoch</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>loss_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>kernel_size</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99.9593049287796</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99.93973970413208</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-4.995636097957633</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="n"/>
+      <c r="B3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>99.79556500911713</v>
+      </c>
+      <c r="E3" t="n">
+        <v>99.66849088668823</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-4.955929873519099</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99.95874166488647</v>
+      </c>
+      <c r="E4" t="n">
+        <v>99.94950294494629</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.99095499515533</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99.99334812164307</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-4.998751735411627</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>out_channels</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99.84175264835358</v>
+      </c>
+      <c r="E6" t="n">
+        <v>99.71640110015869</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.982393078032257</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="n"/>
+      <c r="B7" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99.8994380235672</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99.86182451248169</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>99.91233050823212</v>
+      </c>
+      <c r="E8" t="n">
+        <v>99.86323118209839</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="n"/>
+      <c r="B9" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>99.87114071846008</v>
+      </c>
+      <c r="E9" t="n">
+        <v>99.75918531417847</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.983924461927028</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>stride</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>99.94122385978699</v>
+      </c>
+      <c r="E10" t="n">
+        <v>99.84889626502991</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-9.988624556216202</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>99.93895888328552</v>
+      </c>
+      <c r="E11" t="n">
+        <v>99.84301328659058</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-9.988607092399818</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>99.95478391647339</v>
+      </c>
+      <c r="E12" t="n">
+        <v>99.88374710083008</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-9.991065744719753</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" t="n">
+        <v>99.93669986724854</v>
+      </c>
+      <c r="E13" t="n">
+        <v>99.83724355697632</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-9.987175696157996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>